--- a/Simulations/Results/misalignment/misalignment.xlsx
+++ b/Simulations/Results/misalignment/misalignment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -38,11 +38,77 @@
   <si>
     <t>dv_h (m/s)</t>
   </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -82,46 +148,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="true"/>
-    <col min="2" max="2" width="5.88671875" customWidth="true"/>
-    <col min="3" max="3" width="15.21875" customWidth="true"/>
-    <col min="4" max="4" width="14.21875" customWidth="true"/>
-    <col min="5" max="5" width="13.5546875" customWidth="true"/>
-    <col min="6" max="6" width="16.21875" customWidth="true"/>
-    <col min="7" max="7" width="16.21875" customWidth="true"/>
-    <col min="8" max="8" width="15.5546875" customWidth="true"/>
+    <col min="1" max="1" width="3.15625" customWidth="true"/>
+    <col min="2" max="2" width="6.046875" customWidth="true"/>
+    <col min="3" max="3" width="16.37890625" customWidth="true"/>
+    <col min="4" max="4" width="15.37890625" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="16.37890625" customWidth="true"/>
+    <col min="7" max="7" width="16.37890625" customWidth="true"/>
+    <col min="8" max="8" width="16.37890625" customWidth="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true"/>
+    <col min="10" max="10" width="16.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -129,25 +203,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0096845875136786219</v>
+        <v>0.0030772678464101588</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.04868551253874942</v>
+        <v>-0.045821521800195469</v>
       </c>
       <c r="E2" s="0">
-        <v>0.35813551751483175</v>
+        <v>0.024677662735199248</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0022752812308267853</v>
+        <v>-0.00023866792972626616</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.00065864196341048308</v>
+        <v>-0.0004828852715481253</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0037660887242077514</v>
+        <v>0.0002482043387345322</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.052135098307729125</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.00059308174809597283</v>
       </c>
     </row>
     <row r="3">
@@ -155,25 +235,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.019108328153293108</v>
+        <v>0.0026671925774062188</v>
       </c>
       <c r="D3" s="0">
-        <v>0.22973640248027233</v>
+        <v>-0.035081476320818483</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.16127571791798662</v>
+        <v>0.00055139587353991736</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00027401852569451657</v>
+        <v>-0.00020388998244050965</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0023262513985022187</v>
+        <v>-0.00037152327855555006</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0016065757535576963</v>
+        <v>5.6497484751638188e-06</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.03518704213915224</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.00042383085199887091</v>
       </c>
     </row>
     <row r="4">
@@ -181,25 +267,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.015425984312698482</v>
+        <v>-0.00037370205180220495</v>
       </c>
       <c r="D4" s="0">
-        <v>0.20848505652097993</v>
+        <v>0.022271721568779157</v>
       </c>
       <c r="E4" s="0">
-        <v>0.10515440022166483</v>
+        <v>0.029187602108609184</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0010711128614347351</v>
+        <v>8.3806984187966005e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>0.0021310652463093385</v>
+        <v>0.00022943569332482079</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0011013490195306091</v>
+        <v>0.00029162981389522819</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.036716281833966129</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.0003804106942801275</v>
       </c>
     </row>
     <row r="5">
@@ -207,25 +299,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0075410006667828711</v>
+        <v>0.0018524397841455098</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.25697865527474922</v>
+        <v>-0.028423981564518114</v>
       </c>
       <c r="E5" s="0">
-        <v>0.037704411947901584</v>
+        <v>0.066315199427003702</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0022116357066482295</v>
+        <v>-0.00014120696529276028</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.002856914857274101</v>
+        <v>-0.00029828379515355052</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00041395881193356066</v>
+        <v>0.00066562720089845013</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.072173817525313308</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.00074294831588361636</v>
       </c>
     </row>
     <row r="6">
@@ -233,25 +331,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0027337208269333502</v>
+        <v>-0.0014282977975641487</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.11516649645483187</v>
+        <v>0.040236692910847471</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.17151580593280197</v>
+        <v>0.02502673791995072</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0010791775847871915</v>
+        <v>0.00026667941840093773</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.0012690199736608448</v>
+        <v>0.00042325631085474158</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.0017569717087731617</v>
+        <v>0.00024920682332999004</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.047406424690270295</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.00055889879018589128</v>
       </c>
     </row>
     <row r="7">
@@ -259,25 +363,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0027898805777368807</v>
+        <v>0.0020422375800119852</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.10786873915540535</v>
+        <v>-0.022102549329982096</v>
       </c>
       <c r="E7" s="0">
-        <v>0.16008165977048727</v>
+        <v>0.017093993210032198</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00082772382417061613</v>
+        <v>-5.3156981616717114e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00116906114133022</v>
+        <v>-0.0002275911279272535</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0015929133312749932</v>
+        <v>0.00017132786931086771</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.028016031572693018</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.00028978720642637286</v>
       </c>
     </row>
     <row r="8">
@@ -285,25 +395,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0174322891912988</v>
+        <v>0.0048374349053519339</v>
       </c>
       <c r="D8" s="0">
-        <v>0.21094684503175604</v>
+        <v>-0.091658188040961958</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.16865682807408469</v>
+        <v>0.03181091543094465</v>
       </c>
       <c r="F8" s="0">
-        <v>0.00048022297188698992</v>
+        <v>-0.00050502767759555423</v>
       </c>
       <c r="G8" s="0">
-        <v>0.0020965663599027116</v>
+        <v>-0.00097204741287177732</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0016695789704358026</v>
+        <v>0.00032142193669408266</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.097141950525869977</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.0011415958958390002</v>
       </c>
     </row>
     <row r="9">
@@ -311,25 +427,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.0014569999854199267</v>
+        <v>0.0014090367694370443</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.074017437252937773</v>
+        <v>-0.0097255950827563331</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.23980317049470884</v>
+        <v>-0.019913701460962985</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0011873213690097237</v>
+        <v>-7.3472263530133253e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0008378025397421762</v>
+        <v>-0.00010485371280665075</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0024267806995246577</v>
+        <v>-0.00019965050862378927</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.022206487570251156</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.0002371767277607959</v>
       </c>
     </row>
     <row r="10">
@@ -337,25 +459,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.013422206048946173</v>
+        <v>0.0016561501551919378</v>
       </c>
       <c r="D10" s="0">
-        <v>0.17098349137378044</v>
+        <v>-0.020643123284789677</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.1592264625325181</v>
+        <v>0.057443494806276259</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00055714896229559774</v>
+        <v>-0.00015704539912636539</v>
       </c>
       <c r="G10" s="0">
-        <v>0.0017357093024372452</v>
+        <v>-0.00022142782323266667</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0015507885323570337</v>
+        <v>0.00057693089251471894</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.06106256191682638</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0.00063760708357588579</v>
       </c>
     </row>
     <row r="11">
@@ -363,25 +491,2911 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0072384468519155476</v>
+        <v>0.0013789416156075873</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.19146151474093212</v>
+        <v>-0.013364193980470285</v>
       </c>
       <c r="E11" s="0">
-        <v>0.030809064838217076</v>
+        <v>0.049038106786335751</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0035449793007511776</v>
+        <v>-8.3650353687111934e-05</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0023603910517433434</v>
+        <v>-0.00014206099424081582</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0002571445793120037</v>
+        <v>0.00049172498582029597</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.050845246364974582</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.00051862526879881035</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.00083425752478039072</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.0019482103206462376</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0045330514594047232</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-9.8772386125885181e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>1.030669837393406e-05</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-4.543434458385256e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.0050040048565860237</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.00010920847934174554</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.0031332492354190222</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.046736596403564257</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.024658934578490145</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.00022335514455371769</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00049079298848869876</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.00024798639207709427</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.052935713357875572</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.00059351708383474058</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.00091053922499284567</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-0.013413859326308453</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.08262515859111802</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-7.2373039940967776e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>-0.00014103909026203431</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.0008282506835720206</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.083711872132414086</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.00084328469494575711</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.0018322139403741389</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.017461691247971256</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0051926440911633717</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-9.1353611185389372e-05</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.00018424774216767303</v>
+      </c>
+      <c r="H15" s="0">
+        <v>5.2006471417127628e-05</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.018309320626944934</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.00021212587263169273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0">
+        <v>-0.0001313678961922804</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.0070013619946179273</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-0.084911653744445759</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.0002514036445911208</v>
+      </c>
+      <c r="G16" s="0">
+        <v>9.032469249512648e-05</v>
+      </c>
+      <c r="H16" s="0">
+        <v>-0.00084545575614102322</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.085199913549958955</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.00088665538862628423</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.0029313497618268514</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-0.041359664654336603</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-0.009847130115515525</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-0.00016452237200451081</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.00043119811526215685</v>
+      </c>
+      <c r="H17" s="0">
+        <v>-9.8841653688642276e-05</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.042616670954653831</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.00047198421371856541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.0019994896507755655</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-0.021704555902344547</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.02156870350889761</v>
+      </c>
+      <c r="F18" s="0">
+        <v>-0.00017063350136562599</v>
+      </c>
+      <c r="G18" s="0">
+        <v>-0.00023378129058466805</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.00021668736841801546</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.03066422470626463</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.00036155621865437587</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.0015864122740572029</v>
+      </c>
+      <c r="D19" s="0">
+        <v>-0.012904405284357934</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.011841354124039433</v>
+      </c>
+      <c r="F19" s="0">
+        <v>-0.00011781083480855853</v>
+      </c>
+      <c r="G19" s="0">
+        <v>-0.00014067923978386323</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.00011865027716442621</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.017585734193861512</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.00021851299635410778</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-0.0052645547706626772</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.096654705493294413</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-0.030550012973763977</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.00033942786553985138</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.00099202642364196788</v>
+      </c>
+      <c r="H20" s="0">
+        <v>-0.00030365434371921844</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.10150443795039669</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.0010915739377469406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.002466883528610353</v>
+      </c>
+      <c r="D21" s="0">
+        <v>-0.03202227834805621</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.027422134065479348</v>
+      </c>
+      <c r="F21" s="0">
+        <v>-0.00010906900649189366</v>
+      </c>
+      <c r="G21" s="0">
+        <v>-0.0003322462568153199</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.00027513896997976444</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0.042231330332458641</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0.00044495513947638132</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.0013222775389030161</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-0.009468134163578501</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.031361742546775297</v>
+      </c>
+      <c r="F22" s="0">
+        <v>-0.00018339589968784098</v>
+      </c>
+      <c r="G22" s="0">
+        <v>-0.00011142527302879148</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.00031505037453106099</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0.032786474009866104</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0.00038119074750577977</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.0031927406694345351</v>
+      </c>
+      <c r="D23" s="0">
+        <v>-0.047866078573170295</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.022693221013145554</v>
+      </c>
+      <c r="F23" s="0">
+        <v>-0.00026507889958640729</v>
+      </c>
+      <c r="G23" s="0">
+        <v>-0.00050605130280322562</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.00022840388742357033</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.053069175148165289</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.00061524229362502501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.0012654195473027485</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-0.0098161058458862138</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-0.035035222545274004</v>
+      </c>
+      <c r="F24" s="0">
+        <v>-6.0880891211853583e-05</v>
+      </c>
+      <c r="G24" s="0">
+        <v>-0.00010457265671309215</v>
+      </c>
+      <c r="H24" s="0">
+        <v>-0.00035101061273108876</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.036406373609647158</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.00037128206756674654</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>-0.0045471921676032423</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.079484333765713067</v>
+      </c>
+      <c r="E25" s="0">
+        <v>-0.081229435679156983</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.00039878876844064159</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.00082501967419748318</v>
+      </c>
+      <c r="H25" s="0">
+        <v>-0.00080583640254138248</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.11373942804297324</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.00122027138469611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>-0.0012879278587432097</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.034383939775592898</v>
+      </c>
+      <c r="E26" s="0">
+        <v>-0.052415048336377827</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.00020914616126645885</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.00036064756771005471</v>
+      </c>
+      <c r="H26" s="0">
+        <v>-0.00052238634363201196</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.062699691903276136</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.00066835340717385182</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.000794199176782584</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.0021501079824284841</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.020073163409333777</v>
+      </c>
+      <c r="F27" s="0">
+        <v>-8.3050140789180105e-05</v>
+      </c>
+      <c r="G27" s="0">
+        <v>1.3745696677018495e-05</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.0002013139903347284</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.020203603785620059</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.00021820539124121189</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.0012910272703559045</v>
+      </c>
+      <c r="D28" s="0">
+        <v>-0.010817889163991318</v>
+      </c>
+      <c r="E28" s="0">
+        <v>-0.049329468952107373</v>
+      </c>
+      <c r="F28" s="0">
+        <v>6.5038889427146418e-05</v>
+      </c>
+      <c r="G28" s="0">
+        <v>-0.00010390727474701364</v>
+      </c>
+      <c r="H28" s="0">
+        <v>-0.00049313336043725685</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.050518214383270997</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.0005081410139512549</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.0013745306914243471</v>
+      </c>
+      <c r="D29" s="0">
+        <v>-0.0082331173473899066</v>
+      </c>
+      <c r="E29" s="0">
+        <v>-0.0049544485143417204</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.00010418946133199797</v>
+      </c>
+      <c r="G29" s="0">
+        <v>-7.4860240108286496e-05</v>
+      </c>
+      <c r="H29" s="0">
+        <v>-4.9482176459156401e-05</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0.0097067046910278981</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.00013750630963289392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.0031489211490196567</v>
+      </c>
+      <c r="D30" s="0">
+        <v>-0.047218249999786049</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.032361833606498948</v>
+      </c>
+      <c r="F30" s="0">
+        <v>-0.00020055844920983945</v>
+      </c>
+      <c r="G30" s="0">
+        <v>-0.00049363227315708021</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.00032542042556699721</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0.057330333261021285</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.00062433561970136504</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0">
+        <v>3.0066719416410592e-06</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.017190170163074281</v>
+      </c>
+      <c r="E31" s="0">
+        <v>-0.014569981387132882</v>
+      </c>
+      <c r="F31" s="0">
+        <v>5.7231548227648643e-06</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.00017216199866838854</v>
+      </c>
+      <c r="H31" s="0">
+        <v>-0.00014582502570940334</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0.02253411451326464</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.00022569325734227795</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.0019251152616091005</v>
+      </c>
+      <c r="D32" s="0">
+        <v>-0.021211246454617</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.034253768570259718</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1.5340341912993549e-05</v>
+      </c>
+      <c r="G32" s="0">
+        <v>-0.00021258057661844914</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.00034281977664936723</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0.040335390244720513</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.00040367217752448816</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.0014776595656487146</v>
+      </c>
+      <c r="D33" s="0">
+        <v>-0.029827725365784652</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.09669975222316754</v>
+      </c>
+      <c r="F33" s="0">
+        <v>-0.00017624042521430239</v>
+      </c>
+      <c r="G33" s="0">
+        <v>-0.00031500645031541825</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.00097141254978272635</v>
+      </c>
+      <c r="I33" s="0">
+        <v>0.10120631777863782</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0.0010363069492652338</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.00073990153129965819</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.0037244911135012604</v>
+      </c>
+      <c r="E34" s="0">
+        <v>-0.0012323102111738418</v>
+      </c>
+      <c r="F34" s="0">
+        <v>-7.5597986161635156e-05</v>
+      </c>
+      <c r="G34" s="0">
+        <v>3.0114677697362993e-05</v>
+      </c>
+      <c r="H34" s="0">
+        <v>-1.2405563425610726e-05</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0.0039922270460399367</v>
+      </c>
+      <c r="J34" s="0">
+        <v>8.2315535158423666e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0">
+        <v>-0.00073101067180392221</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.030113520027711449</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.0029338879630733429</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.00022461411005973708</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.00031866685459600898</v>
+      </c>
+      <c r="H35" s="0">
+        <v>2.8843747098604398e-05</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0.030264932903304717</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0.00039093736634239745</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.00076848195017298337</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.0028124905640091735</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-0.014183589757404346</v>
+      </c>
+      <c r="F36" s="0">
+        <v>-0.00011336496740761703</v>
+      </c>
+      <c r="G36" s="0">
+        <v>1.7920751985735662e-05</v>
+      </c>
+      <c r="H36" s="0">
+        <v>-0.00014228136957379376</v>
+      </c>
+      <c r="I36" s="0">
+        <v>0.014480154905481079</v>
+      </c>
+      <c r="J36" s="0">
+        <v>0.00018280250904968129</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>-0.0042488160639617689</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.074881206968380798</v>
+      </c>
+      <c r="E37" s="0">
+        <v>-0.078646190992846671</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.00027945801598646541</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.00077107960212019228</v>
+      </c>
+      <c r="H37" s="0">
+        <v>-0.00078241935827949897</v>
+      </c>
+      <c r="I37" s="0">
+        <v>0.10867599069099936</v>
+      </c>
+      <c r="J37" s="0">
+        <v>0.0011335080889501533</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.00032071590929838578</v>
+      </c>
+      <c r="D38" s="0">
+        <v>-0.0081854566735584666</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.10109900439034332</v>
+      </c>
+      <c r="F38" s="0">
+        <v>-0.00027712411046133117</v>
+      </c>
+      <c r="G38" s="0">
+        <v>-0.00010546793450198202</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.0010175182667209984</v>
+      </c>
+      <c r="I38" s="0">
+        <v>0.10143033692326886</v>
+      </c>
+      <c r="J38" s="0">
+        <v>0.0010598418188192062</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.0033442530910461343</v>
+      </c>
+      <c r="D39" s="0">
+        <v>-0.052877392084234726</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.017488382312250837</v>
+      </c>
+      <c r="F39" s="0">
+        <v>-0.00030516258124709678</v>
+      </c>
+      <c r="G39" s="0">
+        <v>-0.00055988983564003985</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.00017574736909939479</v>
+      </c>
+      <c r="I39" s="0">
+        <v>0.055794678404542386</v>
+      </c>
+      <c r="J39" s="0">
+        <v>0.00066142873145319341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.0026937814621401657</v>
+      </c>
+      <c r="D40" s="0">
+        <v>-0.035016061647511809</v>
+      </c>
+      <c r="E40" s="0">
+        <v>-0.010062566707524648</v>
+      </c>
+      <c r="F40" s="0">
+        <v>-6.1811102929520967e-05</v>
+      </c>
+      <c r="G40" s="0">
+        <v>-0.0003582724179723093</v>
+      </c>
+      <c r="H40" s="0">
+        <v>-0.00010085847111761385</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0.036532674150840654</v>
+      </c>
+      <c r="J40" s="0">
+        <v>0.00037729586417196715</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0.0019452241739310594</v>
+      </c>
+      <c r="D41" s="0">
+        <v>-0.021376564725490738</v>
+      </c>
+      <c r="E41" s="0">
+        <v>-0.035208333721052872</v>
+      </c>
+      <c r="F41" s="0">
+        <v>-0.0001086738964429998</v>
+      </c>
+      <c r="G41" s="0">
+        <v>-0.00022523577587208951</v>
+      </c>
+      <c r="H41" s="0">
+        <v>-0.00035328294042222995</v>
+      </c>
+      <c r="I41" s="0">
+        <v>0.041235520852330329</v>
+      </c>
+      <c r="J41" s="0">
+        <v>0.00043283946965842068</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.0021859273076376695</v>
+      </c>
+      <c r="D42" s="0">
+        <v>-0.029595701223896764</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.046900828554163713</v>
+      </c>
+      <c r="F42" s="0">
+        <v>-0.00012087695278144989</v>
+      </c>
+      <c r="G42" s="0">
+        <v>-0.00030865527512775577</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.0004706527810738626</v>
+      </c>
+      <c r="I42" s="0">
+        <v>0.055501094837809267</v>
+      </c>
+      <c r="J42" s="0">
+        <v>0.00057566774871489952</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0.0028997029719493028</v>
+      </c>
+      <c r="D43" s="0">
+        <v>-0.041292367099364236</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.033155917457113125</v>
+      </c>
+      <c r="F43" s="0">
+        <v>-0.00031334060844433187</v>
+      </c>
+      <c r="G43" s="0">
+        <v>-0.00044449501608169592</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.00033408871054499932</v>
+      </c>
+      <c r="I43" s="0">
+        <v>0.053035674035662908</v>
+      </c>
+      <c r="J43" s="0">
+        <v>0.00063825811607479892</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0">
+        <v>-0.00083362674615550247</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.027354748124571671</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.045343573633546172</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.00010100887167495409</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.00028198352929377285</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.00045294559112650924</v>
+      </c>
+      <c r="I44" s="0">
+        <v>0.052962409767414162</v>
+      </c>
+      <c r="J44" s="0">
+        <v>0.00054302597679205212</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0.0019945045161895436</v>
+      </c>
+      <c r="D45" s="0">
+        <v>-0.020472746691566457</v>
+      </c>
+      <c r="E45" s="0">
+        <v>-0.0088466263537795541</v>
+      </c>
+      <c r="F45" s="0">
+        <v>5.9138622707420596e-05</v>
+      </c>
+      <c r="G45" s="0">
+        <v>-0.000201420712705817</v>
+      </c>
+      <c r="H45" s="0">
+        <v>-8.8520886379563985e-05</v>
+      </c>
+      <c r="I45" s="0">
+        <v>0.022391386808447857</v>
+      </c>
+      <c r="J45" s="0">
+        <v>0.00022782367639925748</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.00012853252709277285</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.014101191717443395</v>
+      </c>
+      <c r="E46" s="0">
+        <v>-0.020234579731768509</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.00015598755382236623</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.00015314458563615071</v>
+      </c>
+      <c r="H46" s="0">
+        <v>-0.0002019680918289532</v>
+      </c>
+      <c r="I46" s="0">
+        <v>0.024663705021425959</v>
+      </c>
+      <c r="J46" s="0">
+        <v>0.00029761802898040698</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.0014476193321959485</v>
+      </c>
+      <c r="D47" s="0">
+        <v>-0.0099933132734906782</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.010714326510704305</v>
+      </c>
+      <c r="F47" s="0">
+        <v>8.3683159633661519e-05</v>
+      </c>
+      <c r="G47" s="0">
+        <v>-9.4270363451444319e-05</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.00010709699315747445</v>
+      </c>
+      <c r="I47" s="0">
+        <v>0.014722727481382432</v>
+      </c>
+      <c r="J47" s="0">
+        <v>0.00016540719021527575</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0.0011329963125215059</v>
+      </c>
+      <c r="D48" s="0">
+        <v>-0.013732567958860825</v>
+      </c>
+      <c r="E48" s="0">
+        <v>-0.067832211373873477</v>
+      </c>
+      <c r="F48" s="0">
+        <v>-4.6340562449773137e-06</v>
+      </c>
+      <c r="G48" s="0">
+        <v>-0.00013871241045935534</v>
+      </c>
+      <c r="H48" s="0">
+        <v>-0.0006790592632351331</v>
+      </c>
+      <c r="I48" s="0">
+        <v>0.069217598941734237</v>
+      </c>
+      <c r="J48" s="0">
+        <v>0.00069309746087990254</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0">
+        <v>-0.0022380179796224198</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.055117954722192108</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.027261309620742948</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.0001429078807283074</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.00056300719197731417</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.00027198572096559422</v>
+      </c>
+      <c r="I49" s="0">
+        <v>0.061531915779315244</v>
+      </c>
+      <c r="J49" s="0">
+        <v>0.00064138599376787958</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0">
+        <v>-0.00060687799061831527</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.025714244557775212</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.034474693920938347</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.00023826359730128033</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.00027588414245680037</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.00034343050400828257</v>
+      </c>
+      <c r="I50" s="0">
+        <v>0.043012732940548574</v>
+      </c>
+      <c r="J50" s="0">
+        <v>0.00050082543160412071</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0.0014086094767673529</v>
+      </c>
+      <c r="D51" s="0">
+        <v>-0.0088776507445433306</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0.0036559843631351892</v>
+      </c>
+      <c r="F51" s="0">
+        <v>-0.0002306748475073353</v>
+      </c>
+      <c r="G51" s="0">
+        <v>-0.0001097211366409734</v>
+      </c>
+      <c r="H51" s="0">
+        <v>3.6772600563516689e-05</v>
+      </c>
+      <c r="I51" s="0">
+        <v>0.0097037665400409624</v>
+      </c>
+      <c r="J51" s="0">
+        <v>0.00025807331758731565</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0.002389480796032295</v>
+      </c>
+      <c r="D52" s="0">
+        <v>-0.029934751684579597</v>
+      </c>
+      <c r="E52" s="0">
+        <v>-0.019560638248682947</v>
+      </c>
+      <c r="F52" s="0">
+        <v>-8.2419453191207026e-06</v>
+      </c>
+      <c r="G52" s="0">
+        <v>-0.00030229365825054384</v>
+      </c>
+      <c r="H52" s="0">
+        <v>-0.00019585952813969116</v>
+      </c>
+      <c r="I52" s="0">
+        <v>0.035838771541277563</v>
+      </c>
+      <c r="J52" s="0">
+        <v>0.00036029202078902947</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.0011143394962767061</v>
+      </c>
+      <c r="D53" s="0">
+        <v>-0.004086691834005951</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.016947856599711066</v>
+      </c>
+      <c r="F53" s="0">
+        <v>1.508937401033944e-05</v>
+      </c>
+      <c r="G53" s="0">
+        <v>-4.0724354769506536e-05</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.0001696125900544511</v>
+      </c>
+      <c r="I53" s="0">
+        <v>0.017469191337422092</v>
+      </c>
+      <c r="J53" s="0">
+        <v>0.00017508453096831775</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0">
+        <v>-0.0020907758280079847</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.046238421922649708</v>
+      </c>
+      <c r="E54" s="0">
+        <v>-0.055519951555451079</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.0003879920998371561</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.00049251878376688251</v>
+      </c>
+      <c r="H54" s="0">
+        <v>-0.00055154478481551092</v>
+      </c>
+      <c r="I54" s="0">
+        <v>0.072282971896426546</v>
+      </c>
+      <c r="J54" s="0">
+        <v>0.00083505345431082625</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.0013847329943814657</v>
+      </c>
+      <c r="D55" s="0">
+        <v>-0.0084494887391971529</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.0011179314544575041</v>
+      </c>
+      <c r="F55" s="0">
+        <v>1.524770544925752e-05</v>
+      </c>
+      <c r="G55" s="0">
+        <v>-8.4575831583613963e-05</v>
+      </c>
+      <c r="H55" s="0">
+        <v>1.1188916431655943e-05</v>
+      </c>
+      <c r="I55" s="0">
+        <v>0.0086348778889115529</v>
+      </c>
+      <c r="J55" s="0">
+        <v>8.6664615965466156e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0">
+        <v>-0.0019546750240460042</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.046758399273024442</v>
+      </c>
+      <c r="E56" s="0">
+        <v>-0.043148804647295383</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.0002640715546026462</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.00048851355561319769</v>
+      </c>
+      <c r="H56" s="0">
+        <v>-0.00042938595501114884</v>
+      </c>
+      <c r="I56" s="0">
+        <v>0.063655227589850483</v>
+      </c>
+      <c r="J56" s="0">
+        <v>0.00070196266163446573</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0.00039640078887437369</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.0098749215730866702</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.012208200687936146</v>
+      </c>
+      <c r="F57" s="0">
+        <v>-3.363957858097677e-06</v>
+      </c>
+      <c r="G57" s="0">
+        <v>9.7955487672356754e-05</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.00012221648101892269</v>
+      </c>
+      <c r="I57" s="0">
+        <v>0.015707048535512882</v>
+      </c>
+      <c r="J57" s="0">
+        <v>0.00015666353120700739</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0.0022980798921423684</v>
+      </c>
+      <c r="D58" s="0">
+        <v>-0.027083945719303476</v>
+      </c>
+      <c r="E58" s="0">
+        <v>-0.015838991749061407</v>
+      </c>
+      <c r="F58" s="0">
+        <v>-1.518661799011084e-05</v>
+      </c>
+      <c r="G58" s="0">
+        <v>-0.00027434173188500485</v>
+      </c>
+      <c r="H58" s="0">
+        <v>-0.00015862782059092507</v>
+      </c>
+      <c r="I58" s="0">
+        <v>0.031459417453978414</v>
+      </c>
+      <c r="J58" s="0">
+        <v>0.00031726456575714246</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0.0025813838571151493</v>
+      </c>
+      <c r="D59" s="0">
+        <v>-0.040201756475771261</v>
+      </c>
+      <c r="E59" s="0">
+        <v>-0.053703883060847321</v>
+      </c>
+      <c r="F59" s="0">
+        <v>-0.00023549432042195562</v>
+      </c>
+      <c r="G59" s="0">
+        <v>-0.0004255755979472595</v>
+      </c>
+      <c r="H59" s="0">
+        <v>-0.00054014053936481457</v>
+      </c>
+      <c r="I59" s="0">
+        <v>0.067133835151644325</v>
+      </c>
+      <c r="J59" s="0">
+        <v>0.00072685897310584193</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0.0019328569475325352</v>
+      </c>
+      <c r="D60" s="0">
+        <v>-0.019313836969948317</v>
+      </c>
+      <c r="E60" s="0">
+        <v>-0.0042531560615194485</v>
+      </c>
+      <c r="F60" s="0">
+        <v>-0.00012380663489273275</v>
+      </c>
+      <c r="G60" s="0">
+        <v>-0.00020572797593700152</v>
+      </c>
+      <c r="H60" s="0">
+        <v>-4.2673270600456298e-05</v>
+      </c>
+      <c r="I60" s="0">
+        <v>0.019870822100884675</v>
+      </c>
+      <c r="J60" s="0">
+        <v>0.00024387105394108928</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0">
+        <v>-0.00029727685797631409</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.021733213848127986</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.0094964006163050646</v>
+      </c>
+      <c r="F61" s="0">
+        <v>6.7869604031579878e-05</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0.00022278977073833918</v>
+      </c>
+      <c r="H61" s="0">
+        <v>9.4958385174461724e-05</v>
+      </c>
+      <c r="I61" s="0">
+        <v>0.023719244978795375</v>
+      </c>
+      <c r="J61" s="0">
+        <v>0.00025151274323975437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0.00037642853442942936</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.0095697154394837058</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.021124536424614485</v>
+      </c>
+      <c r="F62" s="0">
+        <v>-4.1619664617811858e-06</v>
+      </c>
+      <c r="G62" s="0">
+        <v>9.4873977522464108e-05</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.00021147376331966502</v>
+      </c>
+      <c r="I62" s="0">
+        <v>0.023194119754564726</v>
+      </c>
+      <c r="J62" s="0">
+        <v>0.0002318179159347778</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0">
+        <v>-0.0007809009503008113</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.030010745086388846</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.019181720528258121</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.00019660001099060243</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0.00031565696472057262</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.00019123749093300863</v>
+      </c>
+      <c r="I63" s="0">
+        <v>0.03562573549217745</v>
+      </c>
+      <c r="J63" s="0">
+        <v>0.0004181658303071431</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0.00045165851987771788</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.0072815144420444455</v>
+      </c>
+      <c r="E64" s="0">
+        <v>-0.030753978723531177</v>
+      </c>
+      <c r="F64" s="0">
+        <v>8.8212302063586656e-05</v>
+      </c>
+      <c r="G64" s="0">
+        <v>7.9465683697113165e-05</v>
+      </c>
+      <c r="H64" s="0">
+        <v>-0.00030730251017651211</v>
+      </c>
+      <c r="I64" s="0">
+        <v>0.031607462019524572</v>
+      </c>
+      <c r="J64" s="0">
+        <v>0.00032944049217057764</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0.003390366724054239</v>
+      </c>
+      <c r="D65" s="0">
+        <v>-0.052755273784435508</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.025183800558989885</v>
+      </c>
+      <c r="F65" s="0">
+        <v>-0.00023086455413891954</v>
+      </c>
+      <c r="G65" s="0">
+        <v>-0.00055217159820269068</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0.00025333551927428534</v>
+      </c>
+      <c r="I65" s="0">
+        <v>0.058556274720898201</v>
+      </c>
+      <c r="J65" s="0">
+        <v>0.00064990060897451667</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0.0019073501792554737</v>
+      </c>
+      <c r="D66" s="0">
+        <v>-0.024509268008192364</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.051653071194359981</v>
+      </c>
+      <c r="F66" s="0">
+        <v>-0.0002149789793498974</v>
+      </c>
+      <c r="G66" s="0">
+        <v>-0.00026566131803673274</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.00051934611762182998</v>
+      </c>
+      <c r="I66" s="0">
+        <v>0.05720473727597504</v>
+      </c>
+      <c r="J66" s="0">
+        <v>0.00062170112381449447</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0">
+        <v>0</v>
+      </c>
+      <c r="J67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0">
+        <v>0</v>
+      </c>
+      <c r="J68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0">
+        <v>0</v>
+      </c>
+      <c r="J70" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0">
+        <v>0</v>
+      </c>
+      <c r="J71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0">
+        <v>0</v>
+      </c>
+      <c r="J72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0">
+        <v>0</v>
+      </c>
+      <c r="J73" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="0">
+        <v>0</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0">
+        <v>0</v>
+      </c>
+      <c r="J74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0">
+        <v>0</v>
+      </c>
+      <c r="J75" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="0">
+        <v>0</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0">
+        <v>0</v>
+      </c>
+      <c r="J76" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0">
+        <v>0</v>
+      </c>
+      <c r="J77" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0">
+        <v>0</v>
+      </c>
+      <c r="J78" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0</v>
+      </c>
+      <c r="G79" s="0">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0">
+        <v>0</v>
+      </c>
+      <c r="J79" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0">
+        <v>0</v>
+      </c>
+      <c r="J80" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="0">
+        <v>0</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0">
+        <v>0</v>
+      </c>
+      <c r="J81" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0">
+        <v>0</v>
+      </c>
+      <c r="I83" s="0">
+        <v>0</v>
+      </c>
+      <c r="J83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0">
+        <v>0</v>
+      </c>
+      <c r="I84" s="0">
+        <v>0</v>
+      </c>
+      <c r="J84" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0</v>
+      </c>
+      <c r="G85" s="0">
+        <v>0</v>
+      </c>
+      <c r="H85" s="0">
+        <v>0</v>
+      </c>
+      <c r="I85" s="0">
+        <v>0</v>
+      </c>
+      <c r="J85" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0">
+        <v>0</v>
+      </c>
+      <c r="H86" s="0">
+        <v>0</v>
+      </c>
+      <c r="I86" s="0">
+        <v>0</v>
+      </c>
+      <c r="J86" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0">
+        <v>0</v>
+      </c>
+      <c r="H87" s="0">
+        <v>0</v>
+      </c>
+      <c r="I87" s="0">
+        <v>0</v>
+      </c>
+      <c r="J87" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0">
+        <v>0</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0</v>
+      </c>
+      <c r="I88" s="0">
+        <v>0</v>
+      </c>
+      <c r="J88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0">
+        <v>0</v>
+      </c>
+      <c r="H89" s="0">
+        <v>0</v>
+      </c>
+      <c r="I89" s="0">
+        <v>0</v>
+      </c>
+      <c r="J89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0">
+        <v>0</v>
+      </c>
+      <c r="H90" s="0">
+        <v>0</v>
+      </c>
+      <c r="I90" s="0">
+        <v>0</v>
+      </c>
+      <c r="J90" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0">
+        <v>0</v>
+      </c>
+      <c r="H91" s="0">
+        <v>0</v>
+      </c>
+      <c r="I91" s="0">
+        <v>0</v>
+      </c>
+      <c r="J91" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0">
+        <v>0</v>
+      </c>
+      <c r="G92" s="0">
+        <v>0</v>
+      </c>
+      <c r="H92" s="0">
+        <v>0</v>
+      </c>
+      <c r="I92" s="0">
+        <v>0</v>
+      </c>
+      <c r="J92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0">
+        <v>0</v>
+      </c>
+      <c r="G93" s="0">
+        <v>0</v>
+      </c>
+      <c r="H93" s="0">
+        <v>0</v>
+      </c>
+      <c r="I93" s="0">
+        <v>0</v>
+      </c>
+      <c r="J93" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0</v>
+      </c>
+      <c r="G94" s="0">
+        <v>0</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0</v>
+      </c>
+      <c r="I94" s="0">
+        <v>0</v>
+      </c>
+      <c r="J94" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0</v>
+      </c>
+      <c r="G95" s="0">
+        <v>0</v>
+      </c>
+      <c r="H95" s="0">
+        <v>0</v>
+      </c>
+      <c r="I95" s="0">
+        <v>0</v>
+      </c>
+      <c r="J95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0">
+        <v>0</v>
+      </c>
+      <c r="H96" s="0">
+        <v>0</v>
+      </c>
+      <c r="I96" s="0">
+        <v>0</v>
+      </c>
+      <c r="J96" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.00038940964748146456</v>
+      </c>
+      <c r="D97" s="0">
+        <v>-0.0051433702500736089</v>
+      </c>
+      <c r="E97" s="0">
+        <v>-0.086670339923299339</v>
+      </c>
+      <c r="F97" s="0">
+        <v>8.6703322192099863e-05</v>
+      </c>
+      <c r="G97" s="0">
+        <v>-4.4430516382517726e-05</v>
+      </c>
+      <c r="H97" s="0">
+        <v>-0.00086602925313545328</v>
+      </c>
+      <c r="I97" s="0">
+        <v>0.086823693309045255</v>
+      </c>
+      <c r="J97" s="0">
+        <v>0.00087149194152987745</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.00017789875094020857</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.010310428803102734</v>
+      </c>
+      <c r="E98" s="0">
+        <v>-0.04406766981172619</v>
+      </c>
+      <c r="F98" s="0">
+        <v>9.2483391866883535e-05</v>
+      </c>
+      <c r="G98" s="0">
+        <v>0.00011033817471743906</v>
+      </c>
+      <c r="H98" s="0">
+        <v>-0.00044028233457586702</v>
+      </c>
+      <c r="I98" s="0">
+        <v>0.04525810549177639</v>
+      </c>
+      <c r="J98" s="0">
+        <v>0.00046322373072928309</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0">
+        <v>-0.00048768322696712829</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.022573329008911291</v>
+      </c>
+      <c r="E99" s="0">
+        <v>-0.039115809625326417</v>
+      </c>
+      <c r="F99" s="0">
+        <v>-0.00012177414631246719</v>
+      </c>
+      <c r="G99" s="0">
+        <v>0.00021652630762872792</v>
+      </c>
+      <c r="H99" s="0">
+        <v>-0.00039238562444278435</v>
+      </c>
+      <c r="I99" s="0">
+        <v>0.045164583249701309</v>
+      </c>
+      <c r="J99" s="0">
+        <v>0.00046441259982349153</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0">
+        <v>-0.0032582063098249847</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.038214316137098248</v>
+      </c>
+      <c r="E100" s="0">
+        <v>-0.14626303904522958</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0.0003241445071604579</v>
+      </c>
+      <c r="G100" s="0">
+        <v>0.00040930472350357789</v>
+      </c>
+      <c r="H100" s="0">
+        <v>-0.0014537862788662173</v>
+      </c>
+      <c r="I100" s="0">
+        <v>0.15120789151671227</v>
+      </c>
+      <c r="J100" s="0">
+        <v>0.0015446988582970855</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0">
+        <v>-0.0022899655465122848</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.046922764091217928</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.070407767712072591</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0.00020180312367747144</v>
+      </c>
+      <c r="G101" s="0">
+        <v>0.0004858955743099057</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0.00070167226763376267</v>
+      </c>
+      <c r="I101" s="0">
+        <v>0.084641854223318352</v>
+      </c>
+      <c r="J101" s="0">
+        <v>0.00087701937323313704</v>
       </c>
     </row>
   </sheetData>
